--- a/mapping/EDAM_OBI.xlsx
+++ b/mapping/EDAM_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="191">
   <si>
     <t>EDAM_IRI</t>
   </si>
@@ -28,15 +28,33 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://www.geneontology.org/formats/oboInOwl#ObsoleteClass</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_0006</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_0842</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_0581</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_0582</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_2048</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_2044</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_1916</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_0863</t>
   </si>
   <si>
@@ -49,12 +67,12 @@
     <t>http://edamontology.org/data_2531</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_0968</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_0970</t>
   </si>
   <si>
-    <t>http://edamontology.org/data_1187</t>
-  </si>
-  <si>
     <t>http://edamontology.org/data_2968</t>
   </si>
   <si>
@@ -64,10 +82,19 @@
     <t>http://edamontology.org/data_1691</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_2156</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_2192</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_2527</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_2849</t>
   </si>
   <si>
-    <t>http://edamontology.org/data_2925</t>
+    <t>http://edamontology.org/operation_2928</t>
   </si>
   <si>
     <t>http://edamontology.org/data_3720</t>
@@ -82,57 +109,96 @@
     <t>http://edamontology.org/format_1208</t>
   </si>
   <si>
+    <t>http://edamontology.org/format_1212</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/format_1213</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/format_2549</t>
+  </si>
+  <si>
     <t>http://edamontology.org/format_3978</t>
   </si>
   <si>
-    <t>http://edamontology.org/operation_3927</t>
+    <t>http://edamontology.org/topic_3168</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/operation_2945</t>
   </si>
   <si>
     <t>http://edamontology.org/operation_0292</t>
   </si>
   <si>
-    <t>http://edamontology.org/operation_0361</t>
-  </si>
-  <si>
     <t>http://edamontology.org/operation_3192</t>
   </si>
   <si>
+    <t>http://edamontology.org/operation_3196</t>
+  </si>
+  <si>
     <t>http://edamontology.org/operation_3433</t>
   </si>
   <si>
-    <t>http://edamontology.org/operation_3935</t>
-  </si>
-  <si>
     <t>http://edamontology.org/operation_3937</t>
   </si>
   <si>
+    <t>http://edamontology.org/topic_0083</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_0091</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_0099</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_0110</t>
+  </si>
+  <si>
     <t>http://edamontology.org/topic_0182</t>
   </si>
   <si>
-    <t>http://edamontology.org/topic_0221</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_0612</t>
   </si>
   <si>
+    <t>http://edamontology.org/topic_0654</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3050</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3170</t>
+  </si>
+  <si>
     <t>http://edamontology.org/topic_3171</t>
   </si>
   <si>
-    <t>http://edamontology.org/topic_3324</t>
-  </si>
-  <si>
     <t>http://edamontology.org/topic_3474</t>
   </si>
   <si>
     <t>{'iri': 'http://www.geneontology.org/formats/oboInOwl#ObsoleteClass'}</t>
   </si>
   <si>
+    <t>{'label': 'Data', 'prefLabel': None, 'altLabel': None, 'name': 'data_0006'}</t>
+  </si>
+  <si>
     <t>{'label': 'Identifier', 'prefLabel': None, 'altLabel': None, 'name': 'data_0842'}</t>
   </si>
   <si>
+    <t>{'label': 'Database', 'prefLabel': None, 'altLabel': None, 'name': 'data_0581'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Ontology', 'prefLabel': None, 'altLabel': None, 'name': 'data_0582'}</t>
+  </si>
+  <si>
     <t>{'label': 'Report', 'prefLabel': None, 'altLabel': None, 'name': 'data_2048'}</t>
   </si>
   <si>
+    <t>{'label': 'Sequence', 'prefLabel': None, 'altLabel': None, 'name': 'data_2044'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'data_1916'}</t>
+  </si>
+  <si>
     <t>{'label': 'Sequence alignment', 'prefLabel': None, 'altLabel': None, 'name': 'data_0863'}</t>
   </si>
   <si>
@@ -145,12 +211,12 @@
     <t>{'label': 'Protocol', 'prefLabel': None, 'altLabel': None, 'name': 'data_2531'}</t>
   </si>
   <si>
+    <t>{'label': 'Keyword', 'prefLabel': None, 'altLabel': None, 'name': 'data_0968'}</t>
+  </si>
+  <si>
     <t>{'label': 'Citation', 'prefLabel': None, 'altLabel': None, 'name': 'data_0970'}</t>
   </si>
   <si>
-    <t>{'label': 'PubMed ID', 'prefLabel': None, 'altLabel': None, 'name': 'data_1187'}</t>
-  </si>
-  <si>
     <t>{'label': 'Image', 'prefLabel': None, 'altLabel': None, 'name': 'data_2968'}</t>
   </si>
   <si>
@@ -160,10 +226,19 @@
     <t>{'label': 'Email address', 'prefLabel': None, 'altLabel': None, 'name': 'data_1691'}</t>
   </si>
   <si>
+    <t>{'label': 'Date', 'prefLabel': None, 'altLabel': None, 'name': 'data_2156'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Error', 'prefLabel': None, 'altLabel': None, 'name': 'data_2192'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Parameter', 'prefLabel': None, 'altLabel': None, 'name': 'data_2527'}</t>
+  </si>
+  <si>
     <t>{'label': 'Abstract', 'prefLabel': None, 'altLabel': None, 'name': 'data_2849'}</t>
   </si>
   <si>
-    <t>{'label': 'Sequence data', 'prefLabel': None, 'altLabel': None, 'name': 'data_2925'}</t>
+    <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'operation_2928'}</t>
   </si>
   <si>
     <t>{'label': 'Geographic location', 'prefLabel': None, 'altLabel': None, 'name': 'data_3720'}</t>
@@ -178,54 +253,93 @@
     <t>{'label': 'protein', 'prefLabel': None, 'altLabel': None, 'name': 'format_1208'}</t>
   </si>
   <si>
+    <t>{'label': 'dna', 'prefLabel': None, 'altLabel': None, 'name': 'format_1212'}</t>
+  </si>
+  <si>
+    <t>{'label': 'rna', 'prefLabel': None, 'altLabel': None, 'name': 'format_1213'}</t>
+  </si>
+  <si>
+    <t>{'label': 'OBO', 'prefLabel': None, 'altLabel': None, 'name': 'format_2549'}</t>
+  </si>
+  <si>
     <t>{'label': 'CONTIG', 'prefLabel': None, 'altLabel': None, 'name': 'format_3978'}</t>
   </si>
   <si>
-    <t>{'label': 'Network analysis', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3927'}</t>
+    <t>{'label': 'Sequencing', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3168'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Analysis', 'prefLabel': None, 'altLabel': None, 'name': 'operation_2945'}</t>
   </si>
   <si>
     <t>{'label': 'Sequence alignment', 'prefLabel': None, 'altLabel': None, 'name': 'operation_0292'}</t>
   </si>
   <si>
-    <t>{'label': 'Sequence annotation', 'prefLabel': None, 'altLabel': None, 'name': 'operation_0361'}</t>
-  </si>
-  <si>
     <t>{'label': 'Sequence trimming', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3192'}</t>
   </si>
   <si>
+    <t>{'label': 'Genotyping', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3196'}</t>
+  </si>
+  <si>
     <t>{'label': 'Assembly', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3433'}</t>
   </si>
   <si>
-    <t>{'label': 'Dimensionality reduction', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3935'}</t>
-  </si>
-  <si>
     <t>{'label': 'Feature extraction', 'prefLabel': None, 'altLabel': None, 'name': 'operation_3937'}</t>
   </si>
   <si>
+    <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0083'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Bioinformatics', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0091'}</t>
+  </si>
+  <si>
+    <t>{'label': 'RNA', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0099'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Transcription', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0110'}</t>
+  </si>
+  <si>
     <t>{'label': 'Sequence alignment', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0182'}</t>
   </si>
   <si>
-    <t>{'label': 'Sequence annotation', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0221'}</t>
-  </si>
-  <si>
     <t>{'label': 'Cell cycle', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0612'}</t>
   </si>
   <si>
+    <t>{'label': 'DNA', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0654'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Biodiversity', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3050'}</t>
+  </si>
+  <si>
+    <t>{'label': 'RNA-Seq', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3170'}</t>
+  </si>
+  <si>
     <t>{'label': 'DNA methylation', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3171'}</t>
   </si>
   <si>
-    <t>{'label': 'Infectious disease', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3324'}</t>
-  </si>
-  <si>
     <t>{'label': 'Machine learning', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3474'}</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000100</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0020000</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000650</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000000</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000088</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000113</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002467</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002567</t>
   </si>
   <si>
@@ -238,12 +352,12 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000272</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000629</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000301</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001617</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000101</t>
   </si>
   <si>
@@ -253,12 +367,18 @@
     <t>http://purl.obolibrary.org/obo/IAO_0000429</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002471</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000662</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000172</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000315</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000973</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/GAZ_00000448</t>
   </si>
   <si>
@@ -271,45 +391,78 @@
     <t>http://purl.obolibrary.org/obo/PR_000000001</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/SO_0000149</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0200080</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001944</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0400103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0666666</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001941</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600047</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000008</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002585</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000435</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/SO_0001248</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0200050</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0001028</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001626</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000424</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/GO_0007049</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001969</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001271</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/GO_0006306</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_1110040</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002587</t>
   </si>
   <si>
+    <t>{'label': 'Data'}</t>
+  </si>
+  <si>
     <t>{'label': 'Identifier'}</t>
   </si>
   <si>
+    <t>{'label': 'Database'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Ontology'}</t>
+  </si>
+  <si>
     <t>{'label': 'Report', 'prefLabel': 'Report'}</t>
   </si>
   <si>
+    <t>{'label': 'Sequence'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Alignment'}</t>
+  </si>
+  <si>
     <t>{'label': 'Sequence alignment'}</t>
   </si>
   <si>
@@ -322,12 +475,12 @@
     <t>{'label': 'Protocol'}</t>
   </si>
   <si>
+    <t>{'label': 'Keyword'}</t>
+  </si>
+  <si>
     <t>{'label': 'Citation'}</t>
   </si>
   <si>
-    <t>{'label': 'PubMed ID'}</t>
-  </si>
-  <si>
     <t>{'label': 'Image', 'prefLabel': 'Image'}</t>
   </si>
   <si>
@@ -337,12 +490,18 @@
     <t>{'label': 'Email address', 'prefLabel': 'Email address'}</t>
   </si>
   <si>
+    <t>{'label': 'Date'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Error'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Parameter'}</t>
+  </si>
+  <si>
     <t>{'label': 'Abstract'}</t>
   </si>
   <si>
-    <t>{'label': 'Sequence data'}</t>
-  </si>
-  <si>
     <t>{'label': 'Geographic location'}</t>
   </si>
   <si>
@@ -355,37 +514,79 @@
     <t>{'label': 'protein'}</t>
   </si>
   <si>
+    <t>{'label': 'dna'}</t>
+  </si>
+  <si>
+    <t>{'label': 'rna'}</t>
+  </si>
+  <si>
+    <t>{'label': 'OBO'}</t>
+  </si>
+  <si>
     <t>{'label': 'CONTIG'}</t>
   </si>
   <si>
-    <t>{'label': 'Network analysis'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Sequence annotation'}</t>
+    <t>{'label': 'Sequencing'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Analysis'}</t>
   </si>
   <si>
     <t>{'label': 'Sequence trimming'}</t>
   </si>
   <si>
+    <t>{'label': 'Genotyping'}</t>
+  </si>
+  <si>
     <t>{'label': 'Assembly'}</t>
   </si>
   <si>
-    <t>{'label': 'Dimensionality reduction'}</t>
-  </si>
-  <si>
     <t>{'label': 'Feature extraction'}</t>
   </si>
   <si>
+    <t>{'label': 'Bioinformatics'}</t>
+  </si>
+  <si>
+    <t>{'label': 'RNA'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Transcription'}</t>
+  </si>
+  <si>
     <t>{'label': 'Cell cycle'}</t>
   </si>
   <si>
+    <t>{'label': 'DNA'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Biodiversity'}</t>
+  </si>
+  <si>
+    <t>{'label': 'RNA-Seq'}</t>
+  </si>
+  <si>
     <t>{'label': 'DNA methylation'}</t>
   </si>
   <si>
-    <t>{'label': 'Infectious disease'}</t>
-  </si>
-  <si>
     <t>{'label': 'Machine learning'}</t>
+  </si>
+  <si>
+    <t>['An obsolete concept (redefined in EDAM).']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['A report is a document assembled by an author for the purpose of providing information for the audience. A report is the output of a documenting process and has the objective to be consumed by a specific audience. Topic of the report is on something that has completed. A report is not a single figure. [IAO]']</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An image is an affine projection to a two dimensional surface, of measurements of some quality of an entity or entities repeated at regular intervals across a spatial range, where the measurements are represented as color and luminosity on the projected on surface. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An email address identifies an email box to which email messages are delivered. [Wikipedia]']</t>
   </si>
 </sst>
 </file>
@@ -756,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,549 +976,968 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>168</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="E33" t="s">
-        <v>123</v>
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1386,6 +2006,38 @@
     <hyperlink ref="D32" r:id="rId62"/>
     <hyperlink ref="B33" r:id="rId63"/>
     <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78"/>
+    <hyperlink ref="B41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="B44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="B48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94"/>
+    <hyperlink ref="B49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
